--- a/Stocks_financials/MSFT.xlsx
+++ b/Stocks_financials/MSFT.xlsx
@@ -437,13 +437,13 @@
     <t>Free Cash Flow per Share</t>
   </si>
   <si>
-    <t>Diluted Shares Outstanding  (M)</t>
+    <t>Diluted Shares Outstanding  (M) (M)</t>
   </si>
   <si>
-    <t>Basic Shares Outstanding  (M)</t>
+    <t>Basic Shares Outstanding  (M) (M)</t>
   </si>
   <si>
-    <t>Total Shares Outstanding  (M)</t>
+    <t>Total Shares Outstanding  (M) (M)</t>
   </si>
   <si>
     <t xml:space="preserve"> Asset Turnover Analysis</t>
@@ -626,13 +626,13 @@
     <t>Total Debt/Total Capital</t>
   </si>
   <si>
-    <t>All figures in millions of U.S. Dollar except per share items.</t>
+    <t>All figures in billions of U.S. Dollar except per share and labeled items.</t>
   </si>
   <si>
     <t>Microsoft Corporation (MSFT)</t>
   </si>
   <si>
-    <t>$434.05</t>
+    <t>$432.97</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{eb474da7-84e9-4108-8fdd-f491d06cae29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3e6240a3-b874-454c-b175-f7ea01174c35}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -7085,16 +7085,16 @@
         <v>14.160491</v>
       </c>
       <c r="L28" s="12">
-        <v>15.764011999999999</v>
+        <v>15.764015000000001</v>
       </c>
       <c r="M28" s="12">
-        <v>13.927346999999999</v>
+        <v>13.927344</v>
       </c>
       <c r="N28" s="12">
-        <v>14.345561</v>
+        <v>14.345558</v>
       </c>
       <c r="O28" s="12">
-        <v>13.206132</v>
+        <v>13.206135</v>
       </c>
       <c r="P28" s="12">
         <v>12.887226999999999</v>
@@ -11673,16 +11673,16 @@
         <v>21.772549999999999</v>
       </c>
       <c r="L44" s="12">
-        <v>21.334669999999999</v>
+        <v>21.334667</v>
       </c>
       <c r="M44" s="12">
-        <v>20.242190000000001</v>
+        <v>20.242194000000001</v>
       </c>
       <c r="N44" s="12">
-        <v>18.883890000000001</v>
+        <v>18.883894000000002</v>
       </c>
       <c r="O44" s="12">
-        <v>17.853069999999999</v>
+        <v>17.853065999999998</v>
       </c>
       <c r="P44" s="12">
         <v>17.258949999999999</v>
@@ -24969,7 +24969,7 @@
         <v>51.490254999999998</v>
       </c>
       <c r="AO93" s="15">
-        <v>53.314062</v>
+        <v>53.314062999999997</v>
       </c>
       <c r="AP93" s="15">
         <v>55.266331999999998</v>
